--- a/Data/One_month_LWR_data/calculated_variables_onemonth.xlsx
+++ b/Data/One_month_LWR_data/calculated_variables_onemonth.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabes\Documents\AlbatrossPhillipinesLWR\Data\One_month_LWR_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74691ED8-DBAB-4AF1-8D0D-0F34C89E94D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6FC7E5-BFE9-45F8-9081-631FF656F6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="90" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -465,7 +465,7 @@
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,7 +561,7 @@
         <v>1.7276590000000001</v>
       </c>
       <c r="J2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K2">
         <v>4.2729999999999997</v>
@@ -587,46 +587,46 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>8.6599999999999993E-3</v>
+        <v>1.0488000000000001E-2</v>
       </c>
       <c r="C3">
-        <v>3.8409999999999998E-3</v>
+        <v>4.3769999999999998E-3</v>
       </c>
       <c r="D3">
-        <v>3.3770609999999999</v>
+        <v>3.2862040000000001</v>
       </c>
       <c r="E3">
-        <v>0.20397199999999999</v>
+        <v>0.19167200000000001</v>
       </c>
       <c r="F3">
-        <v>1.1639999999999999</v>
+        <v>0.93440000000000001</v>
       </c>
       <c r="G3">
-        <v>0.95009999999999994</v>
+        <v>0.86980000000000002</v>
       </c>
       <c r="H3">
-        <v>0.98986399999999997</v>
+        <v>0.99938910000000003</v>
       </c>
       <c r="I3">
-        <v>1.920536</v>
+        <v>1.9444669999999999</v>
       </c>
       <c r="J3">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K3">
-        <v>2.5960000000000001</v>
+        <v>8.0649999999999995</v>
       </c>
       <c r="L3">
-        <v>17.962</v>
+        <v>17.748000000000001</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="N3">
         <v>95</v>
       </c>
       <c r="O3">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="P3">
         <v>117</v>
@@ -637,31 +637,31 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>1.3247999999999999E-2</v>
+        <v>1.451E-2</v>
       </c>
       <c r="C4">
-        <v>4.3940000000000003E-3</v>
+        <v>4.9560000000000003E-3</v>
       </c>
       <c r="D4">
-        <v>2.8285619999999998</v>
+        <v>2.7715719999999999</v>
       </c>
       <c r="E4">
-        <v>0.201964</v>
+        <v>0.20796899999999999</v>
       </c>
       <c r="F4">
-        <v>0.18540000000000001</v>
+        <v>0.18440000000000001</v>
       </c>
       <c r="G4">
-        <v>0.72389999999999999</v>
+        <v>0.71640000000000004</v>
       </c>
       <c r="H4">
-        <v>0.98890129999999998</v>
+        <v>0.99915969999999998</v>
       </c>
       <c r="I4">
-        <v>1.003822</v>
+        <v>1.0022580000000001</v>
       </c>
       <c r="J4">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="K4">
         <v>0.30380000000000001</v>
@@ -734,5 +734,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/One_month_LWR_data/calculated_variables_onemonth.xlsx
+++ b/Data/One_month_LWR_data/calculated_variables_onemonth.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabes\Documents\AlbatrossPhillipinesLWR\Data\One_month_LWR_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6FC7E5-BFE9-45F8-9081-631FF656F6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C53CCE0-B5C2-4A57-A0E4-A6CB3B0410A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="90" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
